--- a/aichan/546790194810723073_2021-07-13_11-45-13.xlsx
+++ b/aichan/546790194810723073_2021-07-13_11-45-13.xlsx
@@ -770,7 +770,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2036,7 +2036,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3146,7 +3146,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3509,7 +3509,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4227,7 +4227,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4294,7 +4294,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4365,7 +4365,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4445,7 +4445,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4682,7 +4682,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4749,7 +4749,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4883,7 +4883,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4962,7 +4962,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5042,7 +5042,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5243,7 +5243,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5310,7 +5310,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5694,7 +5694,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6119,7 +6119,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -6676,7 +6676,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -6743,7 +6743,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -7226,7 +7226,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -9722,7 +9722,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -10011,7 +10011,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -10737,7 +10737,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -11108,7 +11108,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -11483,7 +11483,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -11637,7 +11637,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -12669,7 +12669,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -12879,7 +12879,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -13226,7 +13226,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -13656,7 +13656,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -15089,7 +15089,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -16347,7 +16347,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -17039,7 +17039,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -17264,7 +17264,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -17607,7 +17607,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -18527,7 +18527,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -19503,7 +19503,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -20501,7 +20501,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -20801,7 +20801,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -21085,7 +21085,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -21255,7 +21255,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -22654,7 +22654,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -23156,7 +23156,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -24766,7 +24766,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -24925,7 +24925,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -24996,7 +24996,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -25142,7 +25142,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -25213,7 +25213,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -25939,7 +25939,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -26006,11 +26006,11 @@
         </is>
       </c>
       <c r="I351" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -26671,7 +26671,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -26809,7 +26809,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -26888,7 +26888,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -27874,7 +27874,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -28237,7 +28237,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -28470,7 +28470,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -28928,7 +28928,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -29070,7 +29070,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -29817,7 +29817,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -30125,7 +30125,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -31001,7 +31001,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -31920,7 +31920,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -32212,7 +32212,7 @@
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -32525,7 +32525,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -33334,7 +33334,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -33705,7 +33705,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -33926,7 +33926,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -35244,7 +35244,7 @@
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -35628,7 +35628,7 @@
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -36679,7 +36679,7 @@
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -36821,7 +36821,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -37121,7 +37121,7 @@
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K500" t="inlineStr">
@@ -37662,11 +37662,11 @@
         </is>
       </c>
       <c r="I507" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K507" t="inlineStr">
@@ -37808,7 +37808,7 @@
         </is>
       </c>
       <c r="I509" t="n">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="J509" t="inlineStr">
         <is>
@@ -37883,7 +37883,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -38326,7 +38326,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -38393,7 +38393,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -38468,7 +38468,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -38614,7 +38614,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
@@ -38772,7 +38772,7 @@
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K522" t="inlineStr">
@@ -38997,7 +38997,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K525" t="inlineStr">
@@ -39294,7 +39294,7 @@
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K529" t="inlineStr">
@@ -39586,7 +39586,7 @@
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K533" t="inlineStr">
@@ -41311,7 +41311,7 @@
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K556" t="inlineStr">
@@ -41666,7 +41666,7 @@
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K561" t="inlineStr">
@@ -41896,7 +41896,7 @@
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K564" t="inlineStr">
@@ -41972,11 +41972,11 @@
         </is>
       </c>
       <c r="I565" t="n">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K565" t="inlineStr">
@@ -42056,7 +42056,7 @@
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K566" t="inlineStr">
@@ -42119,7 +42119,7 @@
       </c>
       <c r="J567" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K567" t="inlineStr">
@@ -42198,7 +42198,7 @@
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K568" t="inlineStr">
@@ -42340,7 +42340,7 @@
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K570" t="inlineStr">
@@ -42494,7 +42494,7 @@
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K572" t="inlineStr">
@@ -42570,7 +42570,7 @@
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K573" t="inlineStr">
@@ -42645,7 +42645,7 @@
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K574" t="inlineStr">
@@ -42720,7 +42720,7 @@
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K575" t="inlineStr">
@@ -42799,7 +42799,7 @@
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K576" t="inlineStr">
@@ -42949,7 +42949,7 @@
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K578" t="inlineStr">
@@ -43095,7 +43095,7 @@
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K580" t="inlineStr">
@@ -43162,7 +43162,7 @@
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K581" t="inlineStr">
@@ -43233,7 +43233,7 @@
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K582" t="inlineStr">
@@ -43312,7 +43312,7 @@
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K583" t="inlineStr">
@@ -43379,7 +43379,7 @@
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K584" t="inlineStr">
@@ -43458,7 +43458,7 @@
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K585" t="inlineStr">
@@ -43529,7 +43529,7 @@
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K586" t="inlineStr">
@@ -43608,7 +43608,7 @@
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K587" t="inlineStr">
@@ -43750,7 +43750,7 @@
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K589" t="inlineStr">
@@ -43825,7 +43825,7 @@
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K590" t="inlineStr">
@@ -43892,7 +43892,7 @@
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K591" t="inlineStr">
@@ -43960,7 +43960,7 @@
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K592" t="inlineStr">
@@ -44035,7 +44035,7 @@
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K593" t="inlineStr">
@@ -44102,7 +44102,7 @@
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K594" t="inlineStr">
@@ -44181,7 +44181,7 @@
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K595" t="inlineStr">
@@ -44327,7 +44327,7 @@
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K597" t="inlineStr">
@@ -44481,7 +44481,7 @@
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K599" t="inlineStr">
@@ -44548,7 +44548,7 @@
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K600" t="inlineStr">
@@ -44611,7 +44611,7 @@
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K601" t="inlineStr">
@@ -44690,7 +44690,7 @@
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K602" t="inlineStr">
@@ -44765,7 +44765,7 @@
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K603" t="inlineStr">
@@ -44832,7 +44832,7 @@
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K604" t="inlineStr">
@@ -45519,7 +45519,7 @@
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K613" t="inlineStr">
@@ -46056,7 +46056,7 @@
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K620" t="inlineStr">

--- a/aichan/546790194810723073_2021-07-13_11-45-13.xlsx
+++ b/aichan/546790194810723073_2021-07-13_11-45-13.xlsx
@@ -770,7 +770,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -912,7 +912,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3146,7 +3146,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3509,7 +3509,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3931,7 +3931,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4227,7 +4227,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4294,7 +4294,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4365,7 +4365,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4445,7 +4445,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4682,7 +4682,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4749,7 +4749,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4962,7 +4962,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5310,7 +5310,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6119,7 +6119,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6334,7 +6334,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -6676,7 +6676,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -6743,7 +6743,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -7531,7 +7531,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -7839,7 +7839,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -7918,7 +7918,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -8127,7 +8127,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -8762,7 +8762,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -10011,7 +10011,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -10232,7 +10232,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -10378,7 +10378,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -10737,7 +10737,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -10875,7 +10875,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -11254,7 +11254,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -11325,7 +11325,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -11404,7 +11404,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -11562,7 +11562,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -12310,7 +12310,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -12812,7 +12812,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -12947,7 +12947,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -13226,7 +13226,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -13656,7 +13656,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -18388,7 +18388,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -19503,7 +19503,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -23156,7 +23156,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -23369,7 +23369,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -23882,7 +23882,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -23961,7 +23961,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -24925,7 +24925,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -25292,7 +25292,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -26302,7 +26302,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -28470,7 +28470,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -28928,7 +28928,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -31853,7 +31853,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -31920,7 +31920,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -32525,7 +32525,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -33334,7 +33334,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -33705,7 +33705,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -33926,7 +33926,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -35628,7 +35628,7 @@
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -36288,7 +36288,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -36821,7 +36821,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -37042,7 +37042,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K499" t="inlineStr">
@@ -40852,7 +40852,7 @@
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K550" t="inlineStr">
@@ -41896,7 +41896,7 @@
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K564" t="inlineStr">
@@ -41976,7 +41976,7 @@
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K565" t="inlineStr">
@@ -43608,7 +43608,7 @@
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K587" t="inlineStr">
@@ -43750,7 +43750,7 @@
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K589" t="inlineStr">
@@ -43825,7 +43825,7 @@
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K590" t="inlineStr">
@@ -43892,7 +43892,7 @@
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K591" t="inlineStr">
@@ -43960,7 +43960,7 @@
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K592" t="inlineStr">
@@ -44035,7 +44035,7 @@
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K593" t="inlineStr">
@@ -44102,7 +44102,7 @@
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K594" t="inlineStr">
@@ -44181,7 +44181,7 @@
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K595" t="inlineStr">
@@ -44252,7 +44252,7 @@
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K596" t="inlineStr">
@@ -44327,7 +44327,7 @@
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K597" t="inlineStr">
@@ -44481,7 +44481,7 @@
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K599" t="inlineStr">
@@ -44548,7 +44548,7 @@
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K600" t="inlineStr">
@@ -44611,7 +44611,7 @@
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K601" t="inlineStr">
@@ -44690,7 +44690,7 @@
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K602" t="inlineStr">
@@ -44765,7 +44765,7 @@
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K603" t="inlineStr">
@@ -44832,7 +44832,7 @@
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K604" t="inlineStr">

--- a/aichan/546790194810723073_2021-07-13_11-45-13.xlsx
+++ b/aichan/546790194810723073_2021-07-13_11-45-13.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4950593036</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:30:03</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44397.56253472222</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -618,10 +632,8 @@
           <t>4950577105</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:27:20</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44397.56064814814</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -697,10 +709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-19 11:33:22</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44396.48150462963</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -760,10 +770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:22:56</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44395.5575925926</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -839,10 +847,8 @@
           <t>4931599320</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-17 21:00:43</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44394.87549768519</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -902,10 +908,8 @@
           <t>4931585832</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:59:04</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44394.87435185185</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -965,10 +969,8 @@
           <t>4931583017</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:58:13</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44394.87376157408</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1028,10 +1030,8 @@
           <t>4917619604</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-15 23:11:30</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44392.96631944444</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1091,10 +1091,8 @@
           <t>4900564354</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-15 05:57:05</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44392.24797453704</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1170,10 +1168,8 @@
           <t>4900564354</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-15 05:56:00</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44392.24722222222</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1249,10 +1245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-15 00:32:41</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44392.02269675926</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1316,10 +1310,8 @@
           <t>4907968441</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-14 19:51:36</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44391.8275</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1383,10 +1375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-14 19:47:18</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44391.82451388889</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1446,10 +1436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-14 18:13:22</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44391.75928240741</v>
       </c>
       <c r="I15" t="n">
         <v>3</v>
@@ -1513,10 +1501,8 @@
           <t>4907968441</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-14 18:04:48</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44391.75333333333</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
@@ -1588,10 +1574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-14 18:00:39</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44391.75045138889</v>
       </c>
       <c r="I17" t="n">
         <v>2</v>
@@ -1667,10 +1651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-14 17:15:42</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44391.71923611111</v>
       </c>
       <c r="I18" t="n">
         <v>2</v>
@@ -1746,10 +1728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-14 15:10:32</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44391.63231481481</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1818,10 +1798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-14 14:06:13</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44391.58765046296</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -1893,10 +1871,8 @@
           <t>4905912841</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-14 12:19:18</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44391.51340277777</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1964,10 +1940,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-14 12:18:31</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44391.5128587963</v>
       </c>
       <c r="I22" t="n">
         <v>5</v>
@@ -2043,10 +2017,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-14 11:59:23</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44391.49957175926</v>
       </c>
       <c r="I23" t="n">
         <v>5</v>
@@ -2110,10 +2082,8 @@
           <t>4904873920</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:10:07</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44391.38202546296</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2185,10 +2155,8 @@
           <t>4904501396</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:21:25</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44391.30653935186</v>
       </c>
       <c r="I25" t="n">
         <v>2</v>
@@ -2260,10 +2228,8 @@
           <t>4900564354</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:19:08</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44391.3049537037</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2335,10 +2301,8 @@
           <t>4904488819</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:18:12</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44391.30430555555</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2410,10 +2374,8 @@
           <t>4899872424</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:15:51</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44391.30267361111</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2485,10 +2447,8 @@
           <t>4900203923</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:12:33</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44391.30038194444</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2560,10 +2520,8 @@
           <t>4904460598</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:04:34</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44391.29483796296</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2623,10 +2581,8 @@
           <t>4904165037</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-14 02:42:05</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44391.11255787037</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2698,10 +2654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-14 00:28:09</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44391.01954861111</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2769,10 +2723,8 @@
           <t>4900203923</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:47:07</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44390.94938657407</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2848,10 +2800,8 @@
           <t>4899872424</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:33:59</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44390.9402662037</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2915,10 +2865,8 @@
           <t>4900203923</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:33:45</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44390.94010416666</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -2990,10 +2938,8 @@
           <t>4899872424</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:32:19</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44390.93910879629</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3065,10 +3011,8 @@
           <t>4899872424</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:31:06</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44390.93826388889</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3136,10 +3080,8 @@
           <t>4900179146</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:30:34</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44390.93789351852</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3211,10 +3153,8 @@
           <t>4899872424</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:26:45</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44390.93524305556</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3282,10 +3222,8 @@
           <t>4899872424</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:20:04</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44390.93060185185</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3349,10 +3287,8 @@
           <t>4899872424</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:15:09</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44390.9271875</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3420,10 +3356,8 @@
           <t>4903654486</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:12:53</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44390.92561342593</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3499,10 +3433,8 @@
           <t>4900362015</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:08:29</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44390.92255787037</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3566,10 +3498,8 @@
           <t>4899872424</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:54:38</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44390.91293981481</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3633,10 +3563,8 @@
           <t>4899872424</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:36:57</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44390.90065972223</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3704,10 +3632,8 @@
           <t>4899872424</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:31:50</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44390.89710648148</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3771,10 +3697,8 @@
           <t>4903141090</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:03:41</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44390.87755787037</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3842,10 +3766,8 @@
           <t>4903078674</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:56:00</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44390.87222222222</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3921,10 +3843,8 @@
           <t>4900564354</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:26:00</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44390.85138888889</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -3996,10 +3916,8 @@
           <t>4899653380</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:15:04</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44390.8437962963</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -4067,10 +3985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:42:44</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44390.82134259259</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4142,10 +4058,8 @@
           <t>4900362015</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:39:28</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44390.81907407408</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4217,10 +4131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:35:42</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44390.81645833333</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4284,10 +4196,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:25:26</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44390.8093287037</v>
       </c>
       <c r="I54" t="n">
         <v>2</v>
@@ -4355,10 +4265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:02:21</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44390.79329861111</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4435,10 +4343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:53:06</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44390.786875</v>
       </c>
       <c r="I56" t="n">
         <v>2</v>
@@ -4514,10 +4420,8 @@
           <t>4902194947</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:51:45</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44390.7859375</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4593,10 +4497,8 @@
           <t>4899646698</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:32:27</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44390.77253472222</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4672,10 +4574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:24:46</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44390.76719907407</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4739,10 +4639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:07:24</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44390.75513888889</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4802,10 +4700,8 @@
           <t>4899628335</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:02:49</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44390.75195601852</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4873,10 +4769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-13 17:45:46</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44390.74011574074</v>
       </c>
       <c r="I62" t="n">
         <v>4</v>
@@ -4952,10 +4846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-13 17:45:32</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44390.73995370371</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5032,10 +4924,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-13 17:35:20</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44390.73287037037</v>
       </c>
       <c r="I64" t="n">
         <v>2</v>
@@ -5099,10 +4989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-13 17:35:14</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44390.73280092593</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5166,10 +5054,8 @@
           <t>4899653380</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-13 17:31:16</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44390.7300462963</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5233,10 +5119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-13 17:01:55</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44390.70966435185</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5300,10 +5184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-13 16:46:43</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44390.6991087963</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5375,10 +5257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-13 16:41:36</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44390.69555555555</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5454,10 +5334,8 @@
           <t>4901136709</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-13 16:05:23</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44390.67040509259</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5529,10 +5407,8 @@
           <t>4900616595</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-13 16:04:38</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44390.66988425926</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5608,10 +5484,8 @@
           <t>4901122531</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-13 16:03:14</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44390.66891203704</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5684,10 +5558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-13 16:02:19</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44390.66827546297</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -5747,10 +5619,8 @@
           <t>4901095397</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-13 15:57:57</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44390.66524305556</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
@@ -5814,10 +5684,8 @@
           <t>4901043061</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-13 15:49:16</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44390.65921296296</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5881,10 +5749,8 @@
           <t>4900616595</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-13 15:48:02</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44390.65835648148</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5956,10 +5822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-13 15:46:02</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44390.65696759259</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6027,10 +5891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-13 15:33:16</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44390.64810185185</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6109,10 +5971,8 @@
           <t>4900920481</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-13 15:24:50</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44390.64224537037</v>
       </c>
       <c r="I79" t="n">
         <v>7</v>
@@ -6180,10 +6040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-13 15:08:33</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44390.6309375</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -6251,10 +6109,8 @@
           <t>4899707173</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-13 15:02:32</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44390.62675925926</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6324,10 +6180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:58:31</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44390.62396990741</v>
       </c>
       <c r="I82" t="n">
         <v>8</v>
@@ -6399,10 +6253,8 @@
           <t>4900769899</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:56:55</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44390.6228587963</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6466,10 +6318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:52:43</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44390.61994212963</v>
       </c>
       <c r="I84" t="n">
         <v>2</v>
@@ -6529,10 +6379,8 @@
           <t>4900714973</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:45:37</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44390.61501157407</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -6596,10 +6444,8 @@
           <t>4900708822</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:44:54</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44390.61451388889</v>
       </c>
       <c r="I86" t="n">
         <v>2</v>
@@ -6666,10 +6512,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:43:36</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44390.61361111111</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -6733,10 +6577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:41:57</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44390.61246527778</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6801,10 +6643,8 @@
           <t>4900113241</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:40:58</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44390.61178240741</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6864,10 +6704,8 @@
           <t>4899852547</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:39:57</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44390.61107638889</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6935,10 +6773,8 @@
           <t>4900687232</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:39:28</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44390.61074074074</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -6998,10 +6834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:37:57</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44390.6096875</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7065,10 +6899,8 @@
           <t>4900647145</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:32:00</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44390.60555555556</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7136,10 +6968,8 @@
           <t>4900520665</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:27:31</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44390.60244212963</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7216,10 +7046,8 @@
           <t>4900616595</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:25:43</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44390.60119212963</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -7295,10 +7123,8 @@
           <t>4899821759</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:24:09</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44390.60010416667</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7374,10 +7200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:23:29</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44390.59964120371</v>
       </c>
       <c r="I97" t="n">
         <v>7</v>
@@ -7454,10 +7278,8 @@
           <t>4899707173</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:22:58</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44390.59928240741</v>
       </c>
       <c r="I98" t="n">
         <v>2</v>
@@ -7521,10 +7343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:20:36</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44390.59763888889</v>
       </c>
       <c r="I99" t="n">
         <v>9</v>
@@ -7592,10 +7412,8 @@
           <t>4900582366</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:19:47</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44390.59707175926</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7671,10 +7489,8 @@
           <t>4900574012</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:18:26</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44390.59613425926</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7750,10 +7566,8 @@
           <t>4900564354</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:17:30</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44390.59548611111</v>
       </c>
       <c r="I102" t="n">
         <v>5</v>
@@ -7829,10 +7643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:17:29</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44390.59547453704</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7908,10 +7720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:10:54</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44390.59090277777</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7975,10 +7785,8 @@
           <t>4900535462</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:10:36</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44390.59069444444</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8042,10 +7850,8 @@
           <t>4900528251</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:09:23</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44390.58984953703</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8117,10 +7923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:08:49</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44390.58945601852</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -8192,10 +7996,8 @@
           <t>4900520665</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:07:53</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44390.58880787037</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8263,10 +8065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:07:49</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44390.58876157407</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8334,10 +8134,8 @@
           <t>4900511455</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:05:37</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44390.58723379629</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8405,10 +8203,8 @@
           <t>4900462626</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:57:54</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44390.581875</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8476,10 +8272,8 @@
           <t>4899646854</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:53:13</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44390.57862268519</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8555,10 +8349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:52:38</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44390.57821759259</v>
       </c>
       <c r="I113" t="n">
         <v>3</v>
@@ -8618,10 +8410,8 @@
           <t>4899773893</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:51:45</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44390.57760416667</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8685,10 +8475,8 @@
           <t>4899936454</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:51:10</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44390.57719907408</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8752,10 +8540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:47:45</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44390.57482638889</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8824,10 +8610,8 @@
           <t>4900398187</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:46:30</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44390.57395833333</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -8891,10 +8675,8 @@
           <t>4899653380</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:46:16</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44390.5737962963</v>
       </c>
       <c r="I118" t="n">
         <v>5</v>
@@ -8966,10 +8748,8 @@
           <t>4899707173</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:45:46</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44390.57344907407</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -9037,10 +8817,8 @@
           <t>4899685759</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:44:47</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44390.5727662037</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9112,10 +8890,8 @@
           <t>4899649272</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:44:37</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44390.57265046296</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9179,10 +8955,8 @@
           <t>4899685759</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:44:17</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44390.57241898148</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9254,10 +9028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:43:21</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44390.57177083333</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9329,10 +9101,8 @@
           <t>4900179146</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:40:17</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44390.56964120371</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9408,10 +9178,8 @@
           <t>4900362015</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:39:39</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44390.56920138889</v>
       </c>
       <c r="I125" t="n">
         <v>4</v>
@@ -9487,10 +9255,8 @@
           <t>4900354505</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:38:58</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44390.56872685185</v>
       </c>
       <c r="I126" t="n">
         <v>2</v>
@@ -9566,10 +9332,8 @@
           <t>4900240277</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:38:31</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44390.56841435185</v>
       </c>
       <c r="I127" t="n">
         <v>3</v>
@@ -9641,10 +9405,8 @@
           <t>4900347993</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:37:40</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44390.56782407407</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -9712,10 +9474,8 @@
           <t>4900345269</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:36:19</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44390.56688657407</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9787,10 +9547,8 @@
           <t>4899821759</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:34:32</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44390.56564814815</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9862,10 +9620,8 @@
           <t>4900322746</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:32:37</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44390.56431712963</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9937,10 +9693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:32:30</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44390.56423611111</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10001,10 +9755,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:31:00</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44390.56319444445</v>
       </c>
       <c r="I133" t="n">
         <v>9</v>
@@ -10064,10 +9816,8 @@
           <t>4899707173</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:30:23</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44390.5627662037</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10143,10 +9893,8 @@
           <t>4900268839</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:25:08</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44390.55912037037</v>
       </c>
       <c r="I135" t="n">
         <v>3</v>
@@ -10222,10 +9970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:20:02</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44390.5555787037</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10293,10 +10039,8 @@
           <t>4900238836</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:20:01</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44390.55556712963</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10368,10 +10112,8 @@
           <t>4900240277</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:18:41</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44390.5546412037</v>
       </c>
       <c r="I138" t="n">
         <v>8</v>
@@ -10443,10 +10185,8 @@
           <t>4900232939</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:18:32</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44390.55453703704</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10510,10 +10250,8 @@
           <t>4899707173</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:18:26</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44390.55446759259</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10581,10 +10319,8 @@
           <t>4900231982</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:18:06</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44390.55423611111</v>
       </c>
       <c r="I141" t="n">
         <v>1</v>
@@ -10656,10 +10392,8 @@
           <t>4900231789</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:18:01</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44390.55417824074</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10727,10 +10461,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:17:35</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44390.55387731481</v>
       </c>
       <c r="I143" t="n">
         <v>4</v>
@@ -10798,10 +10530,8 @@
           <t>4900114240</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:15:47</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44390.55262731481</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10865,10 +10595,8 @@
           <t>4900193713</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:15:39</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44390.55253472222</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10944,10 +10672,8 @@
           <t>4900209928</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:15:29</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44390.55241898148</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11019,10 +10745,8 @@
           <t>4900203923</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:14:26</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44390.55168981481</v>
       </c>
       <c r="I147" t="n">
         <v>5</v>
@@ -11098,10 +10822,8 @@
           <t>4900210112</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:13:51</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44390.55128472222</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11173,10 +10895,8 @@
           <t>4900199963</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:13:47</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44390.55123842593</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11244,10 +10964,8 @@
           <t>4900193713</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:13:45</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44390.55121527778</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11315,10 +11033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:12:39</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44390.55045138889</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11394,10 +11110,8 @@
           <t>4900193713</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:12:21</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44390.55024305556</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11473,10 +11187,8 @@
           <t>4900179146</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:11:58</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44390.54997685185</v>
       </c>
       <c r="I153" t="n">
         <v>3</v>
@@ -11552,10 +11264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:11:38</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44390.54974537037</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
@@ -11627,10 +11337,8 @@
           <t>4900179146</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:10:04</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44390.54865740741</v>
       </c>
       <c r="I155" t="n">
         <v>2</v>
@@ -11698,10 +11406,8 @@
           <t>4899852547</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:09:49</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44390.54848379629</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11781,10 +11487,8 @@
           <t>4899852547</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:09:37</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44390.54834490741</v>
       </c>
       <c r="I157" t="n">
         <v>2</v>
@@ -11860,10 +11564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:08:47</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44390.5477662037</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11923,10 +11625,8 @@
           <t>4899646854</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:06:29</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44390.54616898148</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -12002,10 +11702,8 @@
           <t>4900139390</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:04:27</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44390.54475694444</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12078,10 +11776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:03:18</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44390.54395833334</v>
       </c>
       <c r="I161" t="n">
         <v>10</v>
@@ -12145,10 +11841,8 @@
           <t>4899646854</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:02:30</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44390.54340277778</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12224,10 +11918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:02:03</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44390.54309027778</v>
       </c>
       <c r="I163" t="n">
         <v>3</v>
@@ -12300,10 +11992,8 @@
           <t>4900113420</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:01:45</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44390.54288194444</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -12367,10 +12057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:01:25</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44390.54265046296</v>
       </c>
       <c r="I165" t="n">
         <v>6</v>
@@ -12438,10 +12126,8 @@
           <t>4900017961</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:01:11</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44390.54248842593</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12513,10 +12199,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:01:00</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44390.54236111111</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12592,10 +12276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:00:53</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44390.5422800926</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12659,10 +12341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:00:32</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44390.54203703703</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12735,10 +12415,8 @@
           <t>4900114240</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:00:24</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44390.54194444444</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12802,10 +12480,8 @@
           <t>4900113420</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:00:01</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44390.54167824074</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12869,10 +12545,8 @@
           <t>4900113241</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:59:56</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44390.54162037037</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -12937,10 +12611,8 @@
           <t>4900104409</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:59:27</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44390.54128472223</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13004,10 +12676,8 @@
           <t>4900111576</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:59:10</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44390.54108796296</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13078,10 +12748,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:58:39</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44390.54072916666</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -13145,10 +12813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:58:31</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44390.54063657407</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13216,10 +12882,8 @@
           <t>4900089568</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:57:28</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44390.53990740741</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13287,10 +12951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:56:42</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44390.539375</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13358,10 +13020,8 @@
           <t>4900078641</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:55:26</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44390.53849537037</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13437,10 +13097,8 @@
           <t>4899687657</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:53:27</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44390.53711805555</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13504,10 +13162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:52:08</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44390.5362037037</v>
       </c>
       <c r="I181" t="n">
         <v>3</v>
@@ -13579,10 +13235,8 @@
           <t>4900049586</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:51:19</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44390.53563657407</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13646,10 +13300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:50:56</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44390.53537037037</v>
       </c>
       <c r="I183" t="n">
         <v>5</v>
@@ -13725,10 +13377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:50:50</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44390.53530092593</v>
       </c>
       <c r="I184" t="n">
         <v>7</v>
@@ -13804,10 +13454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:50:10</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44390.53483796296</v>
       </c>
       <c r="I185" t="n">
         <v>2</v>
@@ -13871,10 +13519,8 @@
           <t>4899791579</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:50:00</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44390.53472222222</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13978,10 +13624,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:49:51</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44390.53461805556</v>
       </c>
       <c r="I187" t="n">
         <v>5</v>
@@ -14057,10 +13701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:49:13</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44390.53417824074</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14132,10 +13774,8 @@
           <t>4900019297</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:47:09</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44390.53274305556</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14211,10 +13851,8 @@
           <t>4900018713</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:46:55</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44390.53258101852</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14290,10 +13928,8 @@
           <t>4900018494</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:46:49</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44390.53251157407</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14361,10 +13997,8 @@
           <t>4900017961</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:46:36</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44390.53236111111</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14428,10 +14062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:46:19</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44390.53216435185</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14507,10 +14139,8 @@
           <t>4900013372</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:46:00</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44390.53194444445</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14570,10 +14200,8 @@
           <t>4900013311</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:45:58</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44390.53192129629</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14641,10 +14269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:45:49</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44390.53181712963</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14704,10 +14330,8 @@
           <t>4900015253</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:45:31</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44390.53160879629</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14775,10 +14399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:45:09</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44390.53135416667</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14854,10 +14476,8 @@
           <t>4900008334</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:45:03</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44390.53128472222</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14933,10 +14553,8 @@
           <t>4899853680</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:44:39</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44390.53100694445</v>
       </c>
       <c r="I200" t="n">
         <v>1</v>
@@ -15004,10 +14622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:44:37</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44390.5309837963</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15079,10 +14695,8 @@
           <t>4899999323</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:44:07</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44390.53063657408</v>
       </c>
       <c r="I202" t="n">
         <v>11</v>
@@ -15146,10 +14760,8 @@
           <t>4900005307</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:43:48</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44390.53041666667</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15217,10 +14829,8 @@
           <t>4899993535</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:43:04</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44390.52990740741</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15284,10 +14894,8 @@
           <t>4899996084</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:42:38</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44390.52960648148</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15372,10 +14980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:41:57</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44390.52913194444</v>
       </c>
       <c r="I206" t="n">
         <v>13</v>
@@ -15443,10 +15049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:41:28</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44390.5287962963</v>
       </c>
       <c r="I207" t="n">
         <v>2</v>
@@ -15514,10 +15118,8 @@
           <t>4899982895</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:41:11</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44390.52859953704</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15596,10 +15198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:41:08</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44390.52856481481</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
@@ -15663,10 +15263,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:41:01</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44390.5284837963</v>
       </c>
       <c r="I210" t="n">
         <v>3</v>
@@ -15730,10 +15328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:40:56</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44390.52842592593</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15809,10 +15405,8 @@
           <t>4899973056</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:40:34</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44390.5281712963</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15888,10 +15482,8 @@
           <t>4899980984</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:40:18</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44390.52798611111</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15963,10 +15555,8 @@
           <t>4899972364</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:40:17</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44390.52797453704</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16038,10 +15628,8 @@
           <t>4899980557</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:40:06</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44390.52784722222</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16120,10 +15708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:38:40</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44390.52685185185</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16199,10 +15785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:37:48</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44390.52625</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16270,10 +15854,8 @@
           <t>4899949276</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:37:02</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44390.52571759259</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16337,10 +15919,8 @@
           <t>4899944082</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:36:59</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44390.52568287037</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16416,10 +15996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:36:52</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44390.52560185185</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16488,10 +16066,8 @@
           <t>4899829032</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:36:36</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44390.52541666666</v>
       </c>
       <c r="I221" t="n">
         <v>1</v>
@@ -16567,10 +16143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:36:32</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44390.52537037037</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16642,10 +16216,8 @@
           <t>4899646698</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:35:57</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44390.52496527778</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16721,10 +16293,8 @@
           <t>4899680315</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:35:22</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44390.52456018519</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16792,10 +16362,8 @@
           <t>4899646698</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:34:30</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44390.52395833333</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16871,10 +16439,8 @@
           <t>4899853680</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:34:19</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44390.52383101852</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
@@ -16950,10 +16516,8 @@
           <t>4899936454</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:33:53</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44390.52353009259</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17029,10 +16593,8 @@
           <t>4899930561</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:33:25</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44390.52320601852</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17100,10 +16662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:31:59</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44390.52221064815</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
@@ -17175,10 +16735,8 @@
           <t>4899912749</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:31:57</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44390.5221875</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17254,10 +16812,8 @@
           <t>4899821759</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:31:49</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44390.52209490741</v>
       </c>
       <c r="I231" t="n">
         <v>11</v>
@@ -17329,10 +16885,8 @@
           <t>4899921270</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:31:44</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44390.52203703704</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17392,10 +16946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:31:22</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44390.52178240741</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17471,10 +17023,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:31:16</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44390.52171296296</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17534,10 +17084,8 @@
           <t>4899907759</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:30:19</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44390.52105324074</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17597,10 +17145,8 @@
           <t>4899897845</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:29:41</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44390.52061342593</v>
       </c>
       <c r="I236" t="n">
         <v>1</v>
@@ -17668,10 +17214,8 @@
           <t>4899852651</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:29:09</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44390.52024305556</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17731,10 +17275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:28:37</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44390.51987268519</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17810,10 +17352,8 @@
           <t>4899884714</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:28:15</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44390.51961805556</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17877,10 +17417,8 @@
           <t>4899853680</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:28:13</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44390.5195949074</v>
       </c>
       <c r="I240" t="n">
         <v>1</v>
@@ -17948,10 +17486,8 @@
           <t>4899644202</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:28:02</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44390.5194675926</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18027,10 +17563,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:28:01</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44390.51945601852</v>
       </c>
       <c r="I242" t="n">
         <v>2</v>
@@ -18098,10 +17632,8 @@
           <t>4899644202</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:27:53</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44390.51936342593</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18177,10 +17709,8 @@
           <t>4899883922</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:27:52</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44390.51935185185</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18252,10 +17782,8 @@
           <t>4899883897</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:27:51</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44390.51934027778</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18315,10 +17843,8 @@
           <t>4899878796</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:26:41</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44390.5185300926</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18378,10 +17904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:26:29</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44390.5183912037</v>
       </c>
       <c r="I247" t="n">
         <v>2</v>
@@ -18446,10 +17970,8 @@
           <t>4899653380</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:25:54</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44390.51798611111</v>
       </c>
       <c r="I248" t="n">
         <v>4</v>
@@ -18517,10 +18039,8 @@
           <t>4899872424</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:25:45</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44390.51788194444</v>
       </c>
       <c r="I249" t="n">
         <v>18</v>
@@ -18588,10 +18108,8 @@
           <t>4899829032</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:25:43</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44390.51785879629</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18667,10 +18185,8 @@
           <t>4899829032</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:24:24</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44390.51694444445</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18746,10 +18262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:24:21</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44390.51690972222</v>
       </c>
       <c r="I252" t="n">
         <v>1</v>
@@ -18817,10 +18331,8 @@
           <t>4899858076</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:23:51</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44390.5165625</v>
       </c>
       <c r="I253" t="n">
         <v>1</v>
@@ -18882,10 +18394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:23:38</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44390.51641203704</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -18961,10 +18471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:23:37</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44390.51640046296</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19040,10 +18548,8 @@
           <t>4899856366</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:23:06</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44390.51604166667</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19111,10 +18617,8 @@
           <t>4899853706</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:23:01</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44390.51598379629</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19188,10 +18692,8 @@
           <t>4899853680</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:23:00</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44390.51597222222</v>
       </c>
       <c r="I258" t="n">
         <v>1</v>
@@ -19267,10 +18769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:22:57</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44390.5159375</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19346,10 +18846,8 @@
           <t>4899855689</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:22:49</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44390.51584490741</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19417,10 +18915,8 @@
           <t>4899852651</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:22:32</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44390.51564814815</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19493,10 +18989,8 @@
           <t>4899852547</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:22:29</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44390.51561342592</v>
       </c>
       <c r="I262" t="n">
         <v>9</v>
@@ -19564,10 +19058,8 @@
           <t>4899852574</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:22:29</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44390.51561342592</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19635,10 +19127,8 @@
           <t>4899720580</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:22:25</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44390.51556712963</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19706,10 +19196,8 @@
           <t>4899702451</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:22:13</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44390.51542824074</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19777,10 +19265,8 @@
           <t>4899765747</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:21:56</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44390.51523148148</v>
       </c>
       <c r="I266" t="n">
         <v>1</v>
@@ -19844,10 +19330,8 @@
           <t>4899843290</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:21:48</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44390.51513888889</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19919,10 +19403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:21:38</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44390.51502314815</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19982,10 +19464,8 @@
           <t>4899694964</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:21:20</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44390.51481481481</v>
       </c>
       <c r="I269" t="n">
         <v>1</v>
@@ -20053,10 +19533,8 @@
           <t>4899842151</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:21:18</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44390.51479166667</v>
       </c>
       <c r="I270" t="n">
         <v>5</v>
@@ -20116,10 +19594,8 @@
           <t>4899841855</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:21:10</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44390.51469907408</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20183,10 +19659,8 @@
           <t>4899829032</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:19:59</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44390.51387731481</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20262,10 +19736,8 @@
           <t>4899830919</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:19:23</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44390.51346064815</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20341,10 +19813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:18:38</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44390.51293981481</v>
       </c>
       <c r="I274" t="n">
         <v>2</v>
@@ -20412,10 +19882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:18:03</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44390.51253472222</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20491,10 +19959,8 @@
           <t>4899821759</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:17:41</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44390.51228009259</v>
       </c>
       <c r="I276" t="n">
         <v>12</v>
@@ -20558,10 +20024,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:17:25</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44390.5120949074</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20637,10 +20101,8 @@
           <t>4899820369</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:17:06</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44390.511875</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20712,10 +20174,8 @@
           <t>4899791579</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:16:58</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44390.5117824074</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20791,10 +20251,8 @@
           <t>4899694964</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:16:41</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44390.51158564815</v>
       </c>
       <c r="I280" t="n">
         <v>1</v>
@@ -20862,10 +20320,8 @@
           <t>4899810406</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:16:23</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44390.51137731481</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20933,10 +20389,8 @@
           <t>4899807634</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:16:00</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44390.51111111111</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21008,10 +20462,8 @@
           <t>4899805724</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:15:13</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44390.51056712963</v>
       </c>
       <c r="I283" t="n">
         <v>6</v>
@@ -21075,10 +20527,8 @@
           <t>4899805203</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:15:01</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44390.51042824074</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21166,10 +20616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:14:53</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44390.51033564815</v>
       </c>
       <c r="I285" t="n">
         <v>2</v>
@@ -21245,10 +20693,8 @@
           <t>4899794475</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:14:43</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44390.51021990741</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21320,10 +20766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:14:39</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44390.51017361111</v>
       </c>
       <c r="I287" t="n">
         <v>3</v>
@@ -21391,10 +20835,8 @@
           <t>4899697647</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:14:19</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44390.50994212963</v>
       </c>
       <c r="I288" t="n">
         <v>2</v>
@@ -21470,10 +20912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:14:18</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44390.50993055556</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21537,10 +20977,8 @@
           <t>4899788450</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:13:32</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44390.50939814815</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21616,10 +21054,8 @@
           <t>4899774875</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:11:47</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44390.50818287037</v>
       </c>
       <c r="I291" t="n">
         <v>3</v>
@@ -21695,10 +21131,8 @@
           <t>4899773893</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:11:23</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44390.50790509259</v>
       </c>
       <c r="I292" t="n">
         <v>1</v>
@@ -21774,10 +21208,8 @@
           <t>4899732255</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:10:59</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44390.50762731482</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21854,10 +21286,8 @@
           <t>4899682600</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:10:43</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44390.50744212963</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21934,10 +21364,8 @@
           <t>4899767487</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:10:42</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44390.50743055555</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21997,10 +21425,8 @@
           <t>4899767317</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:10:38</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44390.50738425926</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22068,10 +21494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:10:10</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44390.50706018518</v>
       </c>
       <c r="I297" t="n">
         <v>1</v>
@@ -22147,10 +21571,8 @@
           <t>4899765747</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:09:54</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44390.506875</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22210,10 +21632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:09:53</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44390.50686342592</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22281,10 +21701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:09:45</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44390.50677083333</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22352,10 +21770,8 @@
           <t>4899707173</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:09:19</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44390.50646990741</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22423,10 +21839,8 @@
           <t>4899759080</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:09:19</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44390.50646990741</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22502,10 +21916,8 @@
           <t>4899754154</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:09:10</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44390.50636574074</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
@@ -22569,10 +21981,8 @@
           <t>4899719013</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:08:42</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44390.50604166667</v>
       </c>
       <c r="I304" t="n">
         <v>1</v>
@@ -22644,10 +22054,8 @@
           <t>4899757256</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:08:33</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44390.5059375</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22719,10 +22127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:08:30</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44390.50590277778</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22787,10 +22193,8 @@
           <t>4899748477</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:08:30</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44390.50590277778</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22858,10 +22262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:08:21</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44390.50579861111</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22937,10 +22339,8 @@
           <t>4899748348</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:08:01</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44390.50556712963</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23012,10 +22412,8 @@
           <t>4899731816</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:07:38</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44390.50530092593</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23079,10 +22477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:07:36</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44390.50527777777</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23146,10 +22542,8 @@
           <t>4899719013</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:06:32</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44390.50453703704</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23217,10 +22611,8 @@
           <t>4899741213</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:05:57</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44390.50413194444</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23288,10 +22680,8 @@
           <t>4899732255</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:05:29</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44390.50380787037</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23359,10 +22749,8 @@
           <t>4899731816</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:05:18</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44390.50368055556</v>
       </c>
       <c r="I315" t="n">
         <v>5</v>
@@ -23438,10 +22826,8 @@
           <t>4899735636</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:05:08</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44390.50356481481</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23513,10 +22899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:05:07</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44390.50355324074</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23576,10 +22960,8 @@
           <t>4899731381</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:05:07</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44390.50355324074</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23651,10 +23033,8 @@
           <t>4899720580</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:05:00</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44390.50347222222</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23722,10 +23102,8 @@
           <t>4899730617</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:04:48</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44390.50333333333</v>
       </c>
       <c r="I320" t="n">
         <v>1</v>
@@ -23797,10 +23175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:04:10</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44390.50289351852</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23872,10 +23248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:04:09</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44390.50288194444</v>
       </c>
       <c r="I322" t="n">
         <v>66</v>
@@ -23951,10 +23325,8 @@
           <t>4899719013</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:04:06</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44390.50284722223</v>
       </c>
       <c r="I323" t="n">
         <v>6</v>
@@ -24026,10 +23398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:03:59</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44390.5027662037</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24093,10 +23463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:03:54</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44390.50270833333</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24172,10 +23540,8 @@
           <t>4899718502</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:03:53</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44390.50269675926</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24251,10 +23617,8 @@
           <t>4899725817</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:03:37</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44390.50251157407</v>
       </c>
       <c r="I327" t="n">
         <v>4</v>
@@ -24318,10 +23682,8 @@
           <t>4899725427</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:03:27</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44390.50239583333</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24385,10 +23747,8 @@
           <t>4899697647</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:03:10</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44390.50219907407</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24464,10 +23824,8 @@
           <t>4899680315</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:03:09</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44390.5021875</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24543,10 +23901,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:02:56</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44390.50203703704</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24606,10 +23962,8 @@
           <t>4899720925</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:02:55</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44390.50202546296</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24681,10 +24035,8 @@
           <t>4899716092</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:02:53</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44390.50200231482</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24756,10 +24108,8 @@
           <t>4899707173</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:02:50</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44390.50196759259</v>
       </c>
       <c r="I334" t="n">
         <v>25</v>
@@ -24835,10 +24185,8 @@
           <t>4899680315</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:02:49</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44390.50195601852</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24915,10 +24263,8 @@
           <t>4899720580</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:02:46</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44390.50192129629</v>
       </c>
       <c r="I336" t="n">
         <v>22</v>
@@ -24986,10 +24332,8 @@
           <t>4899713624</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:02:41</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44390.50186342592</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25061,10 +24405,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:02:26</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44390.50168981482</v>
       </c>
       <c r="I338" t="n">
         <v>1</v>
@@ -25132,10 +24474,8 @@
           <t>4899709894</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:02:23</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44390.50165509259</v>
       </c>
       <c r="I339" t="n">
         <v>10</v>
@@ -25203,10 +24543,8 @@
           <t>4899704075</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:02:05</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44390.50144675926</v>
       </c>
       <c r="I340" t="n">
         <v>12</v>
@@ -25282,10 +24620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:01:58</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44390.50136574074</v>
       </c>
       <c r="I341" t="n">
         <v>1</v>
@@ -25349,10 +24685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:01:55</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44390.50133101852</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25424,10 +24758,8 @@
           <t>4899708393</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:01:46</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44390.50122685185</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25491,10 +24823,8 @@
           <t>4899708370</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:01:45</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44390.50121527778</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25558,10 +24888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:01:44</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44390.5012037037</v>
       </c>
       <c r="I345" t="n">
         <v>2</v>
@@ -25637,10 +24965,8 @@
           <t>4899646698</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:01:43</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44390.50119212963</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25716,10 +25042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:01:27</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44390.50100694445</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25787,10 +25111,8 @@
           <t>4899702451</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:01:21</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44390.5009375</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25858,10 +25180,8 @@
           <t>4899707287</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:01:21</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44390.5009375</v>
       </c>
       <c r="I349" t="n">
         <v>2</v>
@@ -25929,10 +25249,8 @@
           <t>4899707173</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:01:18</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44390.50090277778</v>
       </c>
       <c r="I350" t="n">
         <v>63</v>
@@ -26000,10 +25318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:01:16</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44390.50087962963</v>
       </c>
       <c r="I351" t="n">
         <v>139</v>
@@ -26071,10 +25387,8 @@
           <t>4899702242</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:01:16</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44390.50087962963</v>
       </c>
       <c r="I352" t="n">
         <v>1</v>
@@ -26150,10 +25464,8 @@
           <t>4899699977</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:01:13</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44390.50084490741</v>
       </c>
       <c r="I353" t="n">
         <v>2</v>
@@ -26217,10 +25529,8 @@
           <t>4899699720</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:01:07</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44390.50077546296</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26292,10 +25602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:01:04</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44390.50074074074</v>
       </c>
       <c r="I355" t="n">
         <v>3</v>
@@ -26359,10 +25667,8 @@
           <t>4899701721</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:01:03</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44390.50072916667</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26440,10 +25746,8 @@
           <t>4899705603</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:00:44</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44390.50050925926</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26511,10 +25815,8 @@
           <t>4899698711</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:00:43</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44390.50049768519</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26590,10 +25892,8 @@
           <t>4899705575</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:00:43</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44390.50049768519</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26661,10 +25961,8 @@
           <t>4899694964</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:00:29</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44390.50033564815</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26732,10 +26030,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:00:26</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44390.50030092592</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26799,10 +26095,8 @@
           <t>4899700059</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:00:20</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44390.50023148148</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26878,10 +26172,8 @@
           <t>4899689999</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:00:18</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44390.50020833333</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -26945,10 +26237,8 @@
           <t>4899697647</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:00:17</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44390.50019675926</v>
       </c>
       <c r="I364" t="n">
         <v>9</v>
@@ -27024,10 +26314,8 @@
           <t>4899694420</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:00:16</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44390.50018518518</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27103,10 +26391,8 @@
           <t>4899693847</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:00:03</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44390.50003472222</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27178,10 +26464,8 @@
           <t>4899645474</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:00:01</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44390.50001157408</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27253,10 +26537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:59:48</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44390.49986111111</v>
       </c>
       <c r="I368" t="n">
         <v>11</v>
@@ -27335,10 +26617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:59:44</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44390.49981481482</v>
       </c>
       <c r="I369" t="n">
         <v>67</v>
@@ -27414,10 +26694,8 @@
           <t>4899693083</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:59:43</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44390.49980324074</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27485,10 +26763,8 @@
           <t>4899692956</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:59:39</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44390.49975694445</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27560,10 +26836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:59:35</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44390.49971064815</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27639,10 +26913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:59:32</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44390.49967592592</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27714,10 +26986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:59:31</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44390.49966435185</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27785,10 +27055,8 @@
           <t>4899688255</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:59:28</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44390.49962962963</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27864,10 +27132,8 @@
           <t>4899687856</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:59:16</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44390.49949074074</v>
       </c>
       <c r="I376" t="n">
         <v>2</v>
@@ -27935,10 +27201,8 @@
           <t>4899687657</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:59:10</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44390.4994212963</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -28006,10 +27270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:59:02</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44390.49932870371</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28077,10 +27339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:59:01</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44390.49931712963</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28156,10 +27416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:58:50</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44390.49918981481</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28227,10 +27485,8 @@
           <t>4899684241</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:58:46</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44390.49914351852</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28306,10 +27562,8 @@
           <t>4899690956</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:58:44</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44390.49912037037</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28385,10 +27639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:58:40</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44390.49907407408</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28460,10 +27712,8 @@
           <t>4899653380</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:58:40</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44390.49907407408</v>
       </c>
       <c r="I384" t="n">
         <v>1</v>
@@ -28539,10 +27789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:58:34</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44390.49900462963</v>
       </c>
       <c r="I385" t="n">
         <v>1</v>
@@ -28614,10 +27862,8 @@
           <t>4899686455</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:58:34</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44390.49900462963</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28689,10 +27935,8 @@
           <t>4899686083</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:58:22</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44390.49886574074</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28764,10 +28008,8 @@
           <t>4899683245</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:58:18</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44390.49881944444</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28839,10 +28081,8 @@
           <t>4899683234</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:58:18</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44390.49881944444</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28918,10 +28158,8 @@
           <t>4899685759</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:58:13</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44390.49876157408</v>
       </c>
       <c r="I390" t="n">
         <v>2</v>
@@ -28989,10 +28227,8 @@
           <t>4899682681</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:58:03</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44390.49864583334</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29060,10 +28296,8 @@
           <t>4899682600</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:58:01</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44390.49862268518</v>
       </c>
       <c r="I392" t="n">
         <v>9</v>
@@ -29139,10 +28373,8 @@
           <t>4899680315</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:57:59</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44390.49859953704</v>
       </c>
       <c r="I393" t="n">
         <v>1</v>
@@ -29210,10 +28442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:57:57</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44390.49857638889</v>
       </c>
       <c r="I394" t="n">
         <v>1</v>
@@ -29285,10 +28515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:57:54</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44390.49854166667</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29360,10 +28588,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:57:43</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44390.49841435185</v>
       </c>
       <c r="I396" t="n">
         <v>2</v>
@@ -29431,10 +28657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:57:43</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44390.49841435185</v>
       </c>
       <c r="I397" t="n">
         <v>1</v>
@@ -29502,10 +28726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:57:34</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44390.49831018518</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29582,10 +28804,8 @@
           <t>4899681599</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:57:34</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44390.49831018518</v>
       </c>
       <c r="I399" t="n">
         <v>1</v>
@@ -29661,10 +28881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:57:26</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44390.49821759259</v>
       </c>
       <c r="I400" t="n">
         <v>3</v>
@@ -29740,10 +28958,8 @@
           <t>4899674031</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:57:20</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44390.49814814814</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29807,10 +29023,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:57:18</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44390.498125</v>
       </c>
       <c r="I402" t="n">
         <v>236</v>
@@ -29886,10 +29100,8 @@
           <t>4899677505</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:57:11</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44390.49804398148</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29961,10 +29173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:57:09</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44390.49802083334</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -30036,10 +29246,8 @@
           <t>4899673690</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:57:09</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44390.49802083334</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30115,10 +29323,8 @@
           <t>4899677333</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:57:07</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44390.49799768518</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30190,10 +29396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:57:03</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44390.49795138889</v>
       </c>
       <c r="I407" t="n">
         <v>5</v>
@@ -30269,10 +29473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:57:02</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44390.49793981481</v>
       </c>
       <c r="I408" t="n">
         <v>2</v>
@@ -30340,10 +29542,8 @@
           <t>4899680430</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:57:00</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44390.49791666667</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30419,10 +29619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:56:59</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44390.49790509259</v>
       </c>
       <c r="I410" t="n">
         <v>1</v>
@@ -30490,10 +29688,8 @@
           <t>4899680315</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:56:57</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44390.49788194444</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30557,10 +29753,8 @@
           <t>4899680146</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:56:53</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44390.49783564815</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30628,10 +29822,8 @@
           <t>4899672951</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:56:47</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44390.49776620371</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30699,10 +29891,8 @@
           <t>4899676511</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:56:44</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44390.49773148148</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30774,10 +29964,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:56:37</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44390.49765046296</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30845,10 +30033,8 @@
           <t>4899672646</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:56:37</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44390.49765046296</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30924,10 +30110,8 @@
           <t>4899672600</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:56:36</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44390.49763888889</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30991,10 +30175,8 @@
           <t>4899669394</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:56:32</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44390.49759259259</v>
       </c>
       <c r="I418" t="n">
         <v>1</v>
@@ -31070,10 +30252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:56:02</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44390.49724537037</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31149,10 +30329,8 @@
           <t>4899668252</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:56:00</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44390.49722222222</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31220,10 +30398,8 @@
           <t>4899668109</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:55:57</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44390.4971875</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31299,10 +30475,8 @@
           <t>4899668028</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:55:54</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44390.49715277777</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31378,10 +30552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:55:52</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44390.49712962963</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31460,10 +30632,8 @@
           <t>4899653380</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:55:42</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44390.49701388889</v>
       </c>
       <c r="I424" t="n">
         <v>5</v>
@@ -31535,10 +30705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:55:41</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44390.49700231481</v>
       </c>
       <c r="I425" t="n">
         <v>5</v>
@@ -31614,10 +30782,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:55:41</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44390.49700231481</v>
       </c>
       <c r="I426" t="n">
         <v>1</v>
@@ -31689,10 +30855,8 @@
           <t>4899653380</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:55:40</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44390.49699074074</v>
       </c>
       <c r="I427" t="n">
         <v>3</v>
@@ -31768,10 +30932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:55:37</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44390.49695601852</v>
       </c>
       <c r="I428" t="n">
         <v>1</v>
@@ -31843,10 +31005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:55:29</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44390.49686342593</v>
       </c>
       <c r="I429" t="n">
         <v>1</v>
@@ -31910,10 +31070,8 @@
           <t>4899653380</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:55:26</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44390.4968287037</v>
       </c>
       <c r="I430" t="n">
         <v>3</v>
@@ -31985,10 +31143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:55:24</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44390.49680555556</v>
       </c>
       <c r="I431" t="n">
         <v>31</v>
@@ -32056,10 +31212,8 @@
           <t>4899670251</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:55:23</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44390.49679398148</v>
       </c>
       <c r="I432" t="n">
         <v>1</v>
@@ -32131,10 +31285,8 @@
           <t>4899663560</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:55:23</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44390.49679398148</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32202,10 +31354,8 @@
           <t>4899666715</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:55:16</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44390.49671296297</v>
       </c>
       <c r="I434" t="n">
         <v>2</v>
@@ -32281,10 +31431,8 @@
           <t>4899653380</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:55:14</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44390.49668981481</v>
       </c>
       <c r="I435" t="n">
         <v>2</v>
@@ -32360,10 +31508,8 @@
           <t>4899659918</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:55:13</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44390.49667824074</v>
       </c>
       <c r="I436" t="n">
         <v>5</v>
@@ -32439,10 +31585,8 @@
           <t>4899663227</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:55:13</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44390.49667824074</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32515,10 +31659,8 @@
           <t>4899653380</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:55:12</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44390.49666666667</v>
       </c>
       <c r="I438" t="n">
         <v>10</v>
@@ -32578,10 +31720,8 @@
           <t>4899659834</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:55:10</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44390.49664351852</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32657,10 +31797,8 @@
           <t>4899644202</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:55:09</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44390.49663194444</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32736,10 +31874,8 @@
           <t>4899646698</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:55:09</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44390.49663194444</v>
       </c>
       <c r="I441" t="n">
         <v>12</v>
@@ -32807,10 +31943,8 @@
           <t>4899653380</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:55:01</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44390.49653935185</v>
       </c>
       <c r="I442" t="n">
         <v>3</v>
@@ -32886,10 +32020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:54:51</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44390.49642361111</v>
       </c>
       <c r="I443" t="n">
         <v>1</v>
@@ -32953,10 +32085,8 @@
           <t>4899653380</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:54:50</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44390.49641203704</v>
       </c>
       <c r="I444" t="n">
         <v>4</v>
@@ -33020,10 +32150,8 @@
           <t>4899662339</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:54:50</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44390.49641203704</v>
       </c>
       <c r="I445" t="n">
         <v>1</v>
@@ -33095,10 +32223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:54:47</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44390.49637731481</v>
       </c>
       <c r="I446" t="n">
         <v>1</v>
@@ -33170,10 +32296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:54:45</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44390.49635416667</v>
       </c>
       <c r="I447" t="n">
         <v>5</v>
@@ -33249,10 +32373,8 @@
           <t>4899653380</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:54:43</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44390.49633101852</v>
       </c>
       <c r="I448" t="n">
         <v>8</v>
@@ -33324,10 +32446,8 @@
           <t>4899653380</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:54:42</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44390.49631944444</v>
       </c>
       <c r="I449" t="n">
         <v>165</v>
@@ -33403,10 +32523,8 @@
           <t>4899665328</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:54:37</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44390.49626157407</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33478,10 +32596,8 @@
           <t>4899644202</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:54:37</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44390.49626157407</v>
       </c>
       <c r="I451" t="n">
         <v>1</v>
@@ -33541,10 +32657,8 @@
           <t>4899661857</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:54:37</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44390.49626157407</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33620,10 +32734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:54:35</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44390.49623842593</v>
       </c>
       <c r="I453" t="n">
         <v>1</v>
@@ -33695,10 +32807,8 @@
           <t>4899653380</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:54:33</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44390.49621527778</v>
       </c>
       <c r="I454" t="n">
         <v>24</v>
@@ -33766,10 +32876,8 @@
           <t>4899618006</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:54:33</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44390.49621527778</v>
       </c>
       <c r="I455" t="n">
         <v>11</v>
@@ -33845,10 +32953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:54:30</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44390.49618055556</v>
       </c>
       <c r="I456" t="n">
         <v>1</v>
@@ -33916,10 +33022,8 @@
           <t>4899653380</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:54:23</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44390.49609953703</v>
       </c>
       <c r="I457" t="n">
         <v>27</v>
@@ -33991,10 +33095,8 @@
           <t>4899661015</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:54:14</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44390.49599537037</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -34062,10 +33164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:54:09</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44390.4959375</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -34125,10 +33225,8 @@
           <t>4899657840</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:54:09</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44390.4959375</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -34201,10 +33299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:54:08</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44390.49592592593</v>
       </c>
       <c r="I461" t="n">
         <v>2</v>
@@ -34272,10 +33368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:54:05</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44390.4958912037</v>
       </c>
       <c r="I462" t="n">
         <v>67</v>
@@ -34347,10 +33441,8 @@
           <t>4899644202</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:54:03</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44390.49586805556</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34418,10 +33510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:54:01</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44390.4958449074</v>
       </c>
       <c r="I464" t="n">
         <v>1</v>
@@ -34498,10 +33588,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:53:57</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44390.49579861111</v>
       </c>
       <c r="I465" t="n">
         <v>1</v>
@@ -34573,10 +33661,8 @@
           <t>4899645474</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:53:57</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44390.49579861111</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34648,10 +33734,8 @@
           <t>4899657462</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:53:57</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44390.49579861111</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34723,10 +33807,8 @@
           <t>4899653672</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:53:51</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44390.49572916667</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34794,10 +33876,8 @@
           <t>4899657116</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:53:47</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44390.49568287037</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34869,10 +33949,8 @@
           <t>4899653380</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:53:43</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44390.49563657407</v>
       </c>
       <c r="I470" t="n">
         <v>2</v>
@@ -34941,10 +34019,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:53:42</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44390.495625</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -35012,10 +34088,8 @@
           <t>4899649587</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:53:37</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44390.49556712963</v>
       </c>
       <c r="I472" t="n">
         <v>2</v>
@@ -35091,10 +34165,8 @@
           <t>4899653174</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:53:37</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44390.49556712963</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -35162,10 +34234,8 @@
           <t>4899656776</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:53:36</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44390.49555555556</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -35234,10 +34304,8 @@
           <t>4899653041</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:53:34</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44390.49553240741</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35309,10 +34377,8 @@
           <t>4899644202</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:53:34</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44390.49553240741</v>
       </c>
       <c r="I476" t="n">
         <v>1</v>
@@ -35388,10 +34454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:53:33</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44390.49552083333</v>
       </c>
       <c r="I477" t="n">
         <v>1</v>
@@ -35468,10 +34532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:53:32</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44390.49550925926</v>
       </c>
       <c r="I478" t="n">
         <v>133</v>
@@ -35547,10 +34609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:53:29</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44390.49547453703</v>
       </c>
       <c r="I479" t="n">
         <v>2</v>
@@ -35618,10 +34678,8 @@
           <t>4899649272</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:53:29</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44390.49547453703</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35685,10 +34743,8 @@
           <t>4899656401</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:53:25</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44390.49542824074</v>
       </c>
       <c r="I481" t="n">
         <v>1</v>
@@ -35760,10 +34816,8 @@
           <t>4899648999</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:53:21</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44390.49538194444</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35827,10 +34881,8 @@
           <t>4899645474</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:53:19</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44390.4953587963</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35902,10 +34954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:53:14</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44390.49530092593</v>
       </c>
       <c r="I484" t="n">
         <v>1</v>
@@ -35974,10 +35024,8 @@
           <t>4899648753</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:53:14</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44390.49530092593</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -36049,10 +35097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:53:07</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44390.49521990741</v>
       </c>
       <c r="I486" t="n">
         <v>2</v>
@@ -36120,10 +35166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:53:05</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44390.49519675926</v>
       </c>
       <c r="I487" t="n">
         <v>29</v>
@@ -36199,10 +35243,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:53:01</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44390.49515046296</v>
       </c>
       <c r="I488" t="n">
         <v>1</v>
@@ -36278,10 +35320,8 @@
           <t>4899651490</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:52:48</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44390.495</v>
       </c>
       <c r="I489" t="n">
         <v>1</v>
@@ -36357,10 +35397,8 @@
           <t>4899655194</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:52:48</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44390.495</v>
       </c>
       <c r="I490" t="n">
         <v>3</v>
@@ -36448,10 +35486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:52:46</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44390.49497685185</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36523,10 +35559,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:52:43</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44390.49494212963</v>
       </c>
       <c r="I492" t="n">
         <v>1</v>
@@ -36590,10 +35624,8 @@
           <t>4899655030</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:52:43</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44390.49494212963</v>
       </c>
       <c r="I493" t="n">
         <v>2</v>
@@ -36669,10 +35701,8 @@
           <t>4899651299</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:52:43</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44390.49494212963</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36740,10 +35770,8 @@
           <t>4899655003</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:52:42</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44390.49493055556</v>
       </c>
       <c r="I495" t="n">
         <v>2</v>
@@ -36811,10 +35839,8 @@
           <t>4899644937</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:52:40</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44390.49490740741</v>
       </c>
       <c r="I496" t="n">
         <v>4</v>
@@ -36886,10 +35912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:52:34</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44390.49483796296</v>
       </c>
       <c r="I497" t="n">
         <v>1</v>
@@ -36953,10 +35977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:52:33</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44390.49482638889</v>
       </c>
       <c r="I498" t="n">
         <v>3</v>
@@ -37032,10 +36054,8 @@
           <t>4899644563</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:52:29</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44390.49478009259</v>
       </c>
       <c r="I499" t="n">
         <v>1</v>
@@ -37111,10 +36131,8 @@
           <t>4899646854</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:52:23</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44390.49471064815</v>
       </c>
       <c r="I500" t="n">
         <v>27</v>
@@ -37190,10 +36208,8 @@
           <t>4899646695</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:52:20</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44390.49467592593</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -37265,10 +36281,8 @@
           <t>4899646698</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:52:20</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44390.49467592593</v>
       </c>
       <c r="I502" t="n">
         <v>2</v>
@@ -37344,10 +36358,8 @@
           <t>4899644254</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:52:19</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44390.49466435185</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -37423,10 +36435,8 @@
           <t>4899644202</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:52:17</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44390.4946412037</v>
       </c>
       <c r="I504" t="n">
         <v>1</v>
@@ -37502,10 +36512,8 @@
           <t>4899644063</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:52:13</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44390.49459490741</v>
       </c>
       <c r="I505" t="n">
         <v>1</v>
@@ -37581,10 +36589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:52:06</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44390.49451388889</v>
       </c>
       <c r="I506" t="n">
         <v>2</v>
@@ -37656,10 +36662,8 @@
           <t>4899639943</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:52:05</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44390.49450231482</v>
       </c>
       <c r="I507" t="n">
         <v>15</v>
@@ -37731,10 +36735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:52:04</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44390.49449074074</v>
       </c>
       <c r="I508" t="n">
         <v>2</v>
@@ -37802,10 +36804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:51:52</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44390.49435185185</v>
       </c>
       <c r="I509" t="n">
         <v>457</v>
@@ -37873,10 +36873,8 @@
           <t>4899639368</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:51:50</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44390.4943287037</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37948,10 +36946,8 @@
           <t>4899645474</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:51:47</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44390.49429398148</v>
       </c>
       <c r="I511" t="n">
         <v>2</v>
@@ -38023,10 +37019,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:51:40</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44390.49421296296</v>
       </c>
       <c r="I512" t="n">
         <v>1</v>
@@ -38094,10 +37088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:51:36</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44390.49416666666</v>
       </c>
       <c r="I513" t="n">
         <v>2</v>
@@ -38161,10 +37153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:51:28</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44390.49407407407</v>
       </c>
       <c r="I514" t="n">
         <v>1</v>
@@ -38241,10 +37231,8 @@
           <t>4899642461</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:51:28</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44390.49407407407</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -38316,10 +37304,8 @@
           <t>4899634798</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:51:28</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44390.49407407407</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -38383,10 +37369,8 @@
           <t>4899634728</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:51:26</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44390.49405092592</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -38458,10 +37442,8 @@
           <t>4899642395</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:51:25</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44390.49403935186</v>
       </c>
       <c r="I518" t="n">
         <v>1</v>
@@ -38533,10 +37515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:51:22</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44390.49400462963</v>
       </c>
       <c r="I519" t="n">
         <v>2</v>
@@ -38604,10 +37584,8 @@
           <t>4899642295</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:51:22</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44390.49400462963</v>
       </c>
       <c r="I520" t="n">
         <v>1</v>
@@ -38683,10 +37661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:51:18</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44390.49395833333</v>
       </c>
       <c r="I521" t="n">
         <v>41</v>
@@ -38762,10 +37738,8 @@
           <t>4899642174</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:51:18</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44390.49395833333</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
@@ -38833,10 +37807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:51:14</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44390.49391203704</v>
       </c>
       <c r="I523" t="n">
         <v>1</v>
@@ -38908,10 +37880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:51:13</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44390.49390046296</v>
       </c>
       <c r="I524" t="n">
         <v>1</v>
@@ -38987,10 +37957,8 @@
           <t>4899637847</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:51:07</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44390.49383101852</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -39066,10 +38034,8 @@
           <t>4899633896</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:51:04</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44390.49379629629</v>
       </c>
       <c r="I526" t="n">
         <v>2</v>
@@ -39137,10 +38103,8 @@
           <t>4899633917</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:51:04</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44390.49379629629</v>
       </c>
       <c r="I527" t="n">
         <v>1</v>
@@ -39212,10 +38176,8 @@
           <t>4899637343</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:50:52</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44390.49365740741</v>
       </c>
       <c r="I528" t="n">
         <v>3</v>
@@ -39284,10 +38246,8 @@
           <t>4899637348</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:50:52</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44390.49365740741</v>
       </c>
       <c r="I529" t="n">
         <v>2</v>
@@ -39359,10 +38319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:50:50</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44390.49363425926</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -39426,10 +38384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:50:49</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44390.49362268519</v>
       </c>
       <c r="I531" t="n">
         <v>2</v>
@@ -39501,10 +38457,8 @@
           <t>4899637202</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:50:48</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44390.49361111111</v>
       </c>
       <c r="I532" t="n">
         <v>1</v>
@@ -39576,10 +38530,8 @@
           <t>4899633283</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:50:47</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44390.49359953704</v>
       </c>
       <c r="I533" t="n">
         <v>49</v>
@@ -39655,10 +38607,8 @@
           <t>4899637141</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:50:46</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44390.49358796296</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39730,10 +38680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:50:45</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44390.49357638889</v>
       </c>
       <c r="I535" t="n">
         <v>2</v>
@@ -39801,10 +38749,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:50:45</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44390.49357638889</v>
       </c>
       <c r="I536" t="n">
         <v>1</v>
@@ -39872,10 +38818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:50:41</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44390.49353009259</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39947,10 +38891,8 @@
           <t>4899628335</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:50:40</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44390.49351851852</v>
       </c>
       <c r="I538" t="n">
         <v>2</v>
@@ -40026,10 +38968,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:50:36</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44390.49347222222</v>
       </c>
       <c r="I539" t="n">
         <v>1</v>
@@ -40097,10 +39037,8 @@
           <t>4899636498</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:50:28</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44390.49337962963</v>
       </c>
       <c r="I540" t="n">
         <v>3</v>
@@ -40176,10 +39114,8 @@
           <t>4899640371</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:50:24</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44390.49333333333</v>
       </c>
       <c r="I541" t="n">
         <v>4</v>
@@ -40247,10 +39183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:50:22</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44390.49331018519</v>
       </c>
       <c r="I542" t="n">
         <v>1</v>
@@ -40314,10 +39248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:50:17</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44390.49325231482</v>
       </c>
       <c r="I543" t="n">
         <v>2</v>
@@ -40389,10 +39321,8 @@
           <t>4899635680</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:50:05</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44390.49311342592</v>
       </c>
       <c r="I544" t="n">
         <v>4</v>
@@ -40468,10 +39398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:49:58</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44390.49303240741</v>
       </c>
       <c r="I545" t="n">
         <v>1</v>
@@ -40550,10 +39478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:49:57</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44390.49302083333</v>
       </c>
       <c r="I546" t="n">
         <v>5</v>
@@ -40629,10 +39555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:49:48</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44390.49291666667</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40696,10 +39620,8 @@
           <t>4899635062</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:49:48</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44390.49291666667</v>
       </c>
       <c r="I548" t="n">
         <v>20</v>
@@ -40775,10 +39697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:49:47</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44390.49290509259</v>
       </c>
       <c r="I549" t="n">
         <v>1</v>
@@ -40842,10 +39762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:49:44</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44390.49287037037</v>
       </c>
       <c r="I550" t="n">
         <v>10</v>
@@ -40909,10 +39827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:49:42</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44390.49284722222</v>
       </c>
       <c r="I551" t="n">
         <v>1</v>
@@ -40988,10 +39904,8 @@
           <t>4899624817</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:49:41</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44390.49283564815</v>
       </c>
       <c r="I552" t="n">
         <v>10</v>
@@ -41063,10 +39977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:49:40</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44390.49282407408</v>
       </c>
       <c r="I553" t="n">
         <v>10</v>
@@ -41142,10 +40054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:49:38</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44390.49280092592</v>
       </c>
       <c r="I554" t="n">
         <v>2</v>
@@ -41221,10 +40131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:49:32</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44390.49273148148</v>
       </c>
       <c r="I555" t="n">
         <v>7</v>
@@ -41301,10 +40209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:49:30</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44390.49270833333</v>
       </c>
       <c r="I556" t="n">
         <v>1411</v>
@@ -41368,10 +40274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:49:25</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44390.49265046296</v>
       </c>
       <c r="I557" t="n">
         <v>1</v>
@@ -41443,10 +40347,8 @@
           <t>4899628427</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:49:25</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44390.49265046296</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -41514,10 +40416,8 @@
           <t>4899628335</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:49:22</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44390.49261574074</v>
       </c>
       <c r="I559" t="n">
         <v>4</v>
@@ -41585,10 +40485,8 @@
           <t>4899628025</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:49:12</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44390.4925</v>
       </c>
       <c r="I560" t="n">
         <v>12</v>
@@ -41656,10 +40554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:49:05</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44390.49241898148</v>
       </c>
       <c r="I561" t="n">
         <v>2</v>
@@ -41732,10 +40628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:48:51</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44390.49225694445</v>
       </c>
       <c r="I562" t="n">
         <v>13</v>
@@ -41807,10 +40701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:48:47</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44390.49221064815</v>
       </c>
       <c r="I563" t="n">
         <v>2</v>
@@ -41886,10 +40778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:48:46</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44390.49219907408</v>
       </c>
       <c r="I564" t="n">
         <v>6</v>
@@ -41966,10 +40856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:48:45</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44390.4921875</v>
       </c>
       <c r="I565" t="n">
         <v>760</v>
@@ -42046,10 +40934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:48:40</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44390.49212962963</v>
       </c>
       <c r="I566" t="n">
         <v>3</v>
@@ -42109,10 +40995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:48:32</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44390.49203703704</v>
       </c>
       <c r="I567" t="n">
         <v>1</v>
@@ -42188,10 +41072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:48:29</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44390.49200231482</v>
       </c>
       <c r="I568" t="n">
         <v>11</v>
@@ -42267,10 +41149,8 @@
           <t>4899618006</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:48:19</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44390.49188657408</v>
       </c>
       <c r="I569" t="n">
         <v>19</v>
@@ -42330,10 +41210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:48:08</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44390.49175925926</v>
       </c>
       <c r="I570" t="n">
         <v>1</v>
@@ -42405,10 +41283,8 @@
           <t>4899621500</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:48:04</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44390.49171296296</v>
       </c>
       <c r="I571" t="n">
         <v>44</v>
@@ -42484,10 +41360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:48:01</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44390.49167824074</v>
       </c>
       <c r="I572" t="n">
         <v>1</v>
@@ -42560,10 +41434,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:47:59</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44390.49165509259</v>
       </c>
       <c r="I573" t="n">
         <v>1</v>
@@ -42635,10 +41507,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:47:53</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44390.49158564815</v>
       </c>
       <c r="I574" t="n">
         <v>4</v>
@@ -42710,10 +41580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:47:48</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44390.49152777778</v>
       </c>
       <c r="I575" t="n">
         <v>2</v>
@@ -42789,10 +41657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:47:45</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44390.49149305555</v>
       </c>
       <c r="I576" t="n">
         <v>1</v>
@@ -42860,10 +41726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:47:42</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44390.49145833333</v>
       </c>
       <c r="I577" t="n">
         <v>66</v>
@@ -42939,10 +41803,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:47:40</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44390.49143518518</v>
       </c>
       <c r="I578" t="n">
         <v>3</v>
@@ -43018,10 +41880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:47:29</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44390.49130787037</v>
       </c>
       <c r="I579" t="n">
         <v>42</v>
@@ -43085,10 +41945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:47:29</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44390.49130787037</v>
       </c>
       <c r="I580" t="n">
         <v>20</v>
@@ -43152,10 +42010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:47:11</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44390.49109953704</v>
       </c>
       <c r="I581" t="n">
         <v>2</v>
@@ -43223,10 +42079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:47:09</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44390.49107638889</v>
       </c>
       <c r="I582" t="n">
         <v>2</v>
@@ -43302,10 +42156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:47:02</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44390.49099537037</v>
       </c>
       <c r="I583" t="n">
         <v>92</v>
@@ -43369,10 +42221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:47:00</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44390.49097222222</v>
       </c>
       <c r="I584" t="n">
         <v>1</v>
@@ -43448,10 +42298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:47:00</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44390.49097222222</v>
       </c>
       <c r="I585" t="n">
         <v>2</v>
@@ -43519,10 +42367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:46:55</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44390.49091435185</v>
       </c>
       <c r="I586" t="n">
         <v>1</v>
@@ -43598,10 +42444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:46:53</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44390.49089120371</v>
       </c>
       <c r="I587" t="n">
         <v>1</v>
@@ -43669,10 +42513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:46:52</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44390.49087962963</v>
       </c>
       <c r="I588" t="n">
         <v>6</v>
@@ -43740,10 +42582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:46:46</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44390.49081018518</v>
       </c>
       <c r="I589" t="n">
         <v>1</v>
@@ -43815,10 +42655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:46:42</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44390.49076388889</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
@@ -43882,10 +42720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:46:40</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44390.49074074074</v>
       </c>
       <c r="I591" t="n">
         <v>2</v>
@@ -43950,10 +42786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:46:37</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44390.49070601852</v>
       </c>
       <c r="I592" t="n">
         <v>2</v>
@@ -44025,10 +42859,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:46:35</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44390.49068287037</v>
       </c>
       <c r="I593" t="n">
         <v>2</v>
@@ -44092,10 +42924,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:46:34</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44390.4906712963</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
@@ -44171,10 +43001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:46:33</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44390.49065972222</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
@@ -44242,10 +43070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:46:32</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44390.49064814814</v>
       </c>
       <c r="I596" t="n">
         <v>2585</v>
@@ -44317,10 +43143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:46:29</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44390.49061342593</v>
       </c>
       <c r="I597" t="n">
         <v>1</v>
@@ -44396,10 +43220,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:46:28</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44390.49060185185</v>
       </c>
       <c r="I598" t="n">
         <v>2</v>
@@ -44471,10 +43293,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:46:27</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44390.49059027778</v>
       </c>
       <c r="I599" t="n">
         <v>1</v>
@@ -44538,10 +43358,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:46:27</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44390.49059027778</v>
       </c>
       <c r="I600" t="n">
         <v>2</v>
@@ -44601,10 +43419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:46:27</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44390.49059027778</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
@@ -44680,10 +43496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:46:26</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44390.49057870371</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
@@ -44755,10 +43569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:46:22</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44390.49053240741</v>
       </c>
       <c r="I603" t="n">
         <v>1</v>
@@ -44822,10 +43634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:46:20</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44390.49050925926</v>
       </c>
       <c r="I604" t="n">
         <v>4</v>
@@ -44901,10 +43711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:46:19</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44390.49049768518</v>
       </c>
       <c r="I605" t="n">
         <v>1</v>
@@ -44980,10 +43788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:46:19</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44390.49049768518</v>
       </c>
       <c r="I606" t="n">
         <v>2</v>
@@ -45059,10 +43865,8 @@
           <t>4899611097</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:46:13</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44390.49042824074</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
@@ -45130,10 +43934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:46:08</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44390.49037037037</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
@@ -45205,10 +44007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:46:03</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44390.4903125</v>
       </c>
       <c r="I609" t="n">
         <v>3</v>
@@ -45284,10 +44084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:46:02</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44390.49030092593</v>
       </c>
       <c r="I610" t="n">
         <v>2</v>
@@ -45351,10 +44149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:46:01</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44390.49028935185</v>
       </c>
       <c r="I611" t="n">
         <v>4</v>
@@ -45430,10 +44226,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:45:58</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44390.49025462963</v>
       </c>
       <c r="I612" t="n">
         <v>0</v>
@@ -45509,10 +44303,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:45:57</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44390.49024305555</v>
       </c>
       <c r="I613" t="n">
         <v>209</v>
@@ -45588,10 +44380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:45:56</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44390.49023148148</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
@@ -45667,10 +44457,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:45:54</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44390.49020833334</v>
       </c>
       <c r="I615" t="n">
         <v>2</v>
@@ -45738,10 +44526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:45:54</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44390.49020833334</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
@@ -45817,10 +44603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:45:52</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44390.49018518518</v>
       </c>
       <c r="I617" t="n">
         <v>3</v>
@@ -45896,10 +44680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:45:45</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44390.49010416667</v>
       </c>
       <c r="I618" t="n">
         <v>0</v>
@@ -45975,10 +44757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:45:39</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44390.49003472222</v>
       </c>
       <c r="I619" t="n">
         <v>0</v>
@@ -46046,10 +44826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:45:39</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44390.49003472222</v>
       </c>
       <c r="I620" t="n">
         <v>920</v>
@@ -46117,10 +44895,8 @@
           <t>4899611097</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:45:37</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44390.49001157407</v>
       </c>
       <c r="I621" t="n">
         <v>1</v>
@@ -46189,10 +44965,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:45:33</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44390.48996527777</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
@@ -46260,10 +45034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:45:33</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44390.48996527777</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
@@ -46331,10 +45103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:45:29</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44390.48991898148</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
@@ -46410,10 +45180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:45:26</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44390.48988425926</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
@@ -46481,10 +45249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:45:25</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44390.48987268518</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
